--- a/Code/Results/Cases/Case_4_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.665932205736397</v>
+        <v>1.13533147010429</v>
       </c>
       <c r="C2">
-        <v>0.5691957141434045</v>
+        <v>0.2252243830160694</v>
       </c>
       <c r="D2">
-        <v>0.1991376559947469</v>
+        <v>0.07834349447604438</v>
       </c>
       <c r="E2">
-        <v>0.03905011644847778</v>
+        <v>0.09406137471690301</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007982841017275128</v>
+        <v>0.002455704863333368</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3611092862698762</v>
+        <v>0.836628255675425</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1615277252082734</v>
+        <v>0.2081373669001252</v>
       </c>
       <c r="M2">
-        <v>0.4429007465290766</v>
+        <v>0.2467649940627155</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.086572863328257</v>
+        <v>3.497469496676302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.315651958602416</v>
+        <v>1.030758460242964</v>
       </c>
       <c r="C3">
-        <v>0.5067763637885037</v>
+        <v>0.2047744254066401</v>
       </c>
       <c r="D3">
-        <v>0.1724784255312528</v>
+        <v>0.0710865866640944</v>
       </c>
       <c r="E3">
-        <v>0.04043078206942896</v>
+        <v>0.09485364372930793</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008034002153399452</v>
+        <v>0.002459056076272053</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3667960006806474</v>
+        <v>0.8469054332425046</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1467930428696675</v>
+        <v>0.2055324021110678</v>
       </c>
       <c r="M3">
-        <v>0.3855398461055728</v>
+        <v>0.2305992805664658</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.990333874708455</v>
+        <v>3.509885920984146</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.10125175247498</v>
+        <v>0.9666470508117868</v>
       </c>
       <c r="C4">
-        <v>0.4684732922527246</v>
+        <v>0.1921354109002209</v>
       </c>
       <c r="D4">
-        <v>0.1562967533056536</v>
+        <v>0.06666704055751893</v>
       </c>
       <c r="E4">
-        <v>0.04131961871882339</v>
+        <v>0.09536812119174365</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008066409006028107</v>
+        <v>0.002461223740790418</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3715114119436933</v>
+        <v>0.8537931240883552</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1379515143487069</v>
+        <v>0.2040389907457012</v>
       </c>
       <c r="M4">
-        <v>0.3505114675166183</v>
+        <v>0.2207373964448536</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.937194860652852</v>
+        <v>3.520103826522131</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.014010234636032</v>
+        <v>0.9405468446136069</v>
       </c>
       <c r="C5">
-        <v>0.4528631548632802</v>
+        <v>0.1869643173884867</v>
       </c>
       <c r="D5">
-        <v>0.1497437895899196</v>
+        <v>0.06487510809674291</v>
       </c>
       <c r="E5">
-        <v>0.04169208891906706</v>
+        <v>0.09558483383782779</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008079870815279735</v>
+        <v>0.002462134829020659</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3737256990355888</v>
+        <v>0.856744895178629</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1343965446868367</v>
+        <v>0.2034571138309715</v>
       </c>
       <c r="M5">
-        <v>0.3362775480782716</v>
+        <v>0.2167348745354545</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.916945473253804</v>
+        <v>3.524918802188751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.999530450953898</v>
+        <v>0.9362145187471924</v>
       </c>
       <c r="C6">
-        <v>0.4502708276468752</v>
+        <v>0.1861044232474285</v>
       </c>
       <c r="D6">
-        <v>0.1486579979848841</v>
+        <v>0.06457810561474275</v>
       </c>
       <c r="E6">
-        <v>0.04175455501975778</v>
+        <v>0.09562124552398643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008082121750865963</v>
+        <v>0.002462287792960371</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.374110636419875</v>
+        <v>0.8572437843879648</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1338090416976954</v>
+        <v>0.2033621072553089</v>
       </c>
       <c r="M6">
-        <v>0.3339162425345634</v>
+        <v>0.2160712478005351</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.913665371804484</v>
+        <v>3.525757613852733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.100074715521941</v>
+        <v>0.9662949483725924</v>
       </c>
       <c r="C7">
-        <v>0.4682627827661747</v>
+        <v>0.19206575484327</v>
       </c>
       <c r="D7">
-        <v>0.1562082184495779</v>
+        <v>0.06664283726432529</v>
       </c>
       <c r="E7">
-        <v>0.04132460052619225</v>
+        <v>0.09537101525591796</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008066589513773259</v>
+        <v>0.00246123591573722</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3715401085999481</v>
+        <v>0.8538323459861239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1379033810432517</v>
+        <v>0.204031035196337</v>
       </c>
       <c r="M7">
-        <v>0.3503193500339563</v>
+        <v>0.2206833508664587</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.93691619787802</v>
+        <v>3.520166128347768</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.544990189845521</v>
+        <v>1.099255376459837</v>
       </c>
       <c r="C8">
-        <v>0.547664416343622</v>
+        <v>0.2181905020754016</v>
       </c>
       <c r="D8">
-        <v>0.1899030489020532</v>
+        <v>0.07583376757256133</v>
       </c>
       <c r="E8">
-        <v>0.039517594265009</v>
+        <v>0.09432874102463629</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008000278774289359</v>
+        <v>0.002456837581079772</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3628067821947205</v>
+        <v>0.8400518384749311</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1564022416313193</v>
+        <v>0.2072171837096164</v>
       </c>
       <c r="M8">
-        <v>0.4230781578468026</v>
+        <v>0.2411779017418354</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.052097521597346</v>
+        <v>3.501211512862454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.424846297553529</v>
+        <v>1.360712704484627</v>
       </c>
       <c r="C9">
-        <v>0.7039010732961231</v>
+        <v>0.2687591891919112</v>
       </c>
       <c r="D9">
-        <v>0.2577497235881197</v>
+        <v>0.09414736960326309</v>
       </c>
       <c r="E9">
-        <v>0.03630356052409756</v>
+        <v>0.09250658835838665</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007877844483223216</v>
+        <v>0.002449081418067186</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3561117977665162</v>
+        <v>0.8176203806963365</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1944890804903139</v>
+        <v>0.2143057612326373</v>
       </c>
       <c r="M9">
-        <v>0.5676579176570087</v>
+        <v>0.2818683441421967</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.329615458679569</v>
+        <v>3.484684402030268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.078899712021382</v>
+        <v>1.553204178449221</v>
       </c>
       <c r="C10">
-        <v>0.8195522267189403</v>
+        <v>0.3055040490165197</v>
       </c>
       <c r="D10">
-        <v>0.309107442738096</v>
+        <v>0.1077845431347413</v>
       </c>
       <c r="E10">
-        <v>0.03414786955923477</v>
+        <v>0.09130219562391728</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007792101299137897</v>
+        <v>0.002443907246386589</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3586284787212861</v>
+        <v>0.8039534648840601</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2238451644258816</v>
+        <v>0.2200258480551156</v>
       </c>
       <c r="M10">
-        <v>0.6756208813031819</v>
+        <v>0.3120633415585843</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.571621778765433</v>
+        <v>3.485213883558146</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.378868031673392</v>
+        <v>1.640852806360783</v>
       </c>
       <c r="C11">
-        <v>0.8724862354726497</v>
+        <v>0.3221309701734185</v>
       </c>
       <c r="D11">
-        <v>0.332904144062411</v>
+        <v>0.1140292108001688</v>
       </c>
       <c r="E11">
-        <v>0.03321296632503334</v>
+        <v>0.09078327896951066</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007753906506500561</v>
+        <v>0.002441666062314168</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3616493244460059</v>
+        <v>0.7983499801060319</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2375637968391118</v>
+        <v>0.2227392605101102</v>
       </c>
       <c r="M11">
-        <v>0.7252563455728165</v>
+        <v>0.3258639847361238</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.69160631569531</v>
+        <v>3.488225547504612</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.492877665448361</v>
+        <v>1.674054003539993</v>
       </c>
       <c r="C12">
-        <v>0.8925896342377371</v>
+        <v>0.3284142919544593</v>
       </c>
       <c r="D12">
-        <v>0.3419871902306681</v>
+        <v>0.1163998726040205</v>
       </c>
       <c r="E12">
-        <v>0.0328656221376098</v>
+        <v>0.09059093118226702</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007739550509135519</v>
+        <v>0.002440833483941417</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3630869793190357</v>
+        <v>0.7963165854913399</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.242817009832649</v>
+        <v>0.2237827483229324</v>
       </c>
       <c r="M12">
-        <v>0.7441399931320944</v>
+        <v>0.3310990989131355</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.738611897778895</v>
+        <v>3.489765884397599</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.468303907638756</v>
+        <v>1.666903084166449</v>
       </c>
       <c r="C13">
-        <v>0.8882572069844628</v>
+        <v>0.3270616446127974</v>
       </c>
       <c r="D13">
-        <v>0.340027644620136</v>
+        <v>0.1158890432930519</v>
       </c>
       <c r="E13">
-        <v>0.03294012990200268</v>
+        <v>0.09063217211030716</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007742637697811794</v>
+        <v>0.002441012079428026</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3627638870180476</v>
+        <v>0.7967505718495218</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2416829463210632</v>
+        <v>0.2235573044225418</v>
       </c>
       <c r="M13">
-        <v>0.7400689446951745</v>
+        <v>0.3299712214903607</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.728416091779479</v>
+        <v>3.4894163372484</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.388238882154212</v>
+        <v>1.643584085151019</v>
       </c>
       <c r="C14">
-        <v>0.8741389108261046</v>
+        <v>0.3226481631940317</v>
       </c>
       <c r="D14">
-        <v>0.333649917158084</v>
+        <v>0.1142241272715978</v>
       </c>
       <c r="E14">
-        <v>0.03318425552771931</v>
+        <v>0.09076737119683775</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007752723328867077</v>
+        <v>0.002441597243198158</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3617615697448784</v>
+        <v>0.7981809157651725</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2379947787443371</v>
+        <v>0.2228247888385084</v>
       </c>
       <c r="M14">
-        <v>0.7268080791095528</v>
+        <v>0.3262944993226782</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.695441137300435</v>
+        <v>3.488344249368168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.339253314647578</v>
+        <v>1.629301859024224</v>
       </c>
       <c r="C15">
-        <v>0.8654990294337779</v>
+        <v>0.3199430881363696</v>
       </c>
       <c r="D15">
-        <v>0.329753011034768</v>
+        <v>0.1132050930699364</v>
       </c>
       <c r="E15">
-        <v>0.0333346631876148</v>
+        <v>0.09085072528450144</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007758914795394022</v>
+        <v>0.002441957768601362</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3611866200971789</v>
+        <v>0.7990685793725802</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2357434399638976</v>
+        <v>0.2223781817454267</v>
       </c>
       <c r="M15">
-        <v>0.7186972409716432</v>
+        <v>0.3240435811579303</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.675452083322455</v>
+        <v>3.487739684370808</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.059350758121298</v>
+        <v>1.547477689330265</v>
       </c>
       <c r="C16">
-        <v>0.8161003694962119</v>
+        <v>0.3044156420764637</v>
       </c>
       <c r="D16">
-        <v>0.3075617846214413</v>
+        <v>0.1073772687552577</v>
       </c>
       <c r="E16">
-        <v>0.0342098969425586</v>
+        <v>0.09133669002324485</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007794612971668401</v>
+        <v>0.002444055971587031</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3584708105490293</v>
+        <v>0.8043320381556285</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2229564422892736</v>
+        <v>0.2198507575879631</v>
       </c>
       <c r="M16">
-        <v>0.672388656687815</v>
+        <v>0.3111627230756469</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.563991903367878</v>
+        <v>3.48507294357313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.888309927065279</v>
+        <v>1.497301533524308</v>
       </c>
       <c r="C17">
-        <v>0.7858869127583432</v>
+        <v>0.2948672422465108</v>
       </c>
       <c r="D17">
-        <v>0.2940657149968189</v>
+        <v>0.1038126286549925</v>
       </c>
       <c r="E17">
-        <v>0.03475861176241635</v>
+        <v>0.09164222522631804</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000781671400726587</v>
+        <v>0.002445371927835449</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3573016446303257</v>
+        <v>0.807718372412964</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2152093842632894</v>
+        <v>0.2183287542294607</v>
       </c>
       <c r="M17">
-        <v>0.6441223219017829</v>
+        <v>0.3032771799713103</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.498249684479418</v>
+        <v>3.484147683102663</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.790156656434533</v>
+        <v>1.468449458956002</v>
       </c>
       <c r="C18">
-        <v>0.7685386254900948</v>
+        <v>0.2893669373313799</v>
       </c>
       <c r="D18">
-        <v>0.2863433591575415</v>
+        <v>0.1017662033681148</v>
       </c>
       <c r="E18">
-        <v>0.03507851568773446</v>
+        <v>0.09182068820664613</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007829502777390572</v>
+        <v>0.002446139431547385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3568041974115985</v>
+        <v>0.8097238465390433</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2107874014155868</v>
+        <v>0.2174638175255836</v>
       </c>
       <c r="M18">
-        <v>0.627912640552978</v>
+        <v>0.2987477344177307</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.46135828575467</v>
+        <v>3.483876212079423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.756960302331606</v>
+        <v>1.458682046394642</v>
       </c>
       <c r="C19">
-        <v>0.7626695493749764</v>
+        <v>0.2875032063227252</v>
       </c>
       <c r="D19">
-        <v>0.2837353384966264</v>
+        <v>0.1010739809432408</v>
       </c>
       <c r="E19">
-        <v>0.03518756462323402</v>
+        <v>0.09188158143822811</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007833846294644786</v>
+        <v>0.00244640111810589</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3566651343832135</v>
+        <v>0.8104127747392624</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2092958490976002</v>
+        <v>0.2171727655731814</v>
       </c>
       <c r="M19">
-        <v>0.6224322612037838</v>
+        <v>0.2972151977482298</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.449021532248281</v>
+        <v>3.483829030490625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.906493768096027</v>
+        <v>1.502642061242454</v>
       </c>
       <c r="C20">
-        <v>0.7891000310540619</v>
+        <v>0.2958845480822561</v>
       </c>
       <c r="D20">
-        <v>0.2954981660328997</v>
+        <v>0.1041916907561671</v>
       </c>
       <c r="E20">
-        <v>0.03469975458335428</v>
+        <v>0.0916094183049283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000781435342466219</v>
+        <v>0.002445230745688661</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3574078227905488</v>
+        <v>0.8073519130125888</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2160305203145754</v>
+        <v>0.21848968972634</v>
       </c>
       <c r="M20">
-        <v>0.6471262277734411</v>
+        <v>0.304115978607733</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.505151629133906</v>
+        <v>3.484219185203216</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.411744001443481</v>
+        <v>1.650433164897777</v>
       </c>
       <c r="C21">
-        <v>0.87828411021286</v>
+        <v>0.3239448622825591</v>
       </c>
       <c r="D21">
-        <v>0.3355211842761463</v>
+        <v>0.1147129919001202</v>
       </c>
       <c r="E21">
-        <v>0.03311236764231795</v>
+        <v>0.090727547276507</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007749758091122232</v>
+        <v>0.002441424929775983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3620478015972424</v>
+        <v>0.7977583843571026</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2390764524479323</v>
+        <v>0.22303951303536</v>
       </c>
       <c r="M21">
-        <v>0.7307006283191271</v>
+        <v>0.3273741961343362</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.705082831897442</v>
+        <v>3.488648283267736</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.744427513998005</v>
+        <v>1.747084125850108</v>
       </c>
       <c r="C22">
-        <v>0.9369180463479836</v>
+        <v>0.3422084260816689</v>
       </c>
       <c r="D22">
-        <v>0.3621017136940878</v>
+        <v>0.1216239210525316</v>
       </c>
       <c r="E22">
-        <v>0.03211392880288311</v>
+        <v>0.09017540532555612</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007708163435147333</v>
+        <v>0.002439031471250544</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3668050291381419</v>
+        <v>0.7920045709513701</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2544810043814607</v>
+        <v>0.2261062005668464</v>
       </c>
       <c r="M22">
-        <v>0.7858396441022251</v>
+        <v>0.3426277925129071</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.844978861925483</v>
+        <v>3.493874462476185</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.566617704950033</v>
+        <v>1.695494576386238</v>
       </c>
       <c r="C23">
-        <v>0.9055880300742558</v>
+        <v>0.3324677915951213</v>
       </c>
       <c r="D23">
-        <v>0.3478731524179182</v>
+        <v>0.1179322447501505</v>
       </c>
       <c r="E23">
-        <v>0.03264320782901953</v>
+        <v>0.09046788205117062</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007730309519772273</v>
+        <v>0.002440300342501309</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3640997183568473</v>
+        <v>0.7950281728445674</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.246225876615128</v>
+        <v>0.2244609414258747</v>
       </c>
       <c r="M23">
-        <v>0.7563590137130589</v>
+        <v>0.3344818784625048</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.769417091146664</v>
+        <v>3.490871341188665</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.89827229676996</v>
+        <v>1.50022762454978</v>
       </c>
       <c r="C24">
-        <v>0.7876473131570663</v>
+        <v>0.2954246577509423</v>
       </c>
       <c r="D24">
-        <v>0.294850441260607</v>
+        <v>0.104020307646806</v>
       </c>
       <c r="E24">
-        <v>0.03472635009096492</v>
+        <v>0.09162424157059057</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007815420386208248</v>
+        <v>0.00244529454003846</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3573592772110175</v>
+        <v>0.807517406708584</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2156591857691836</v>
+        <v>0.2184168993783828</v>
       </c>
       <c r="M24">
-        <v>0.6457680351295281</v>
+        <v>0.3037367450885071</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.502028453053697</v>
+        <v>3.484186047834669</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.185724913056106</v>
+        <v>1.289908602845685</v>
       </c>
       <c r="C25">
-        <v>0.6615251453279427</v>
+        <v>0.2551503493243672</v>
       </c>
       <c r="D25">
-        <v>0.2391632650384281</v>
+        <v>0.08916144265243986</v>
       </c>
       <c r="E25">
-        <v>0.03713728875580058</v>
+        <v>0.09297587673054908</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007910194522797267</v>
+        <v>0.002451087204084079</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3567001272294839</v>
+        <v>0.8231956217550902</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1839651130216211</v>
+        <v>0.2122981602508176</v>
       </c>
       <c r="M25">
-        <v>0.5282846091616733</v>
+        <v>0.2708074773737152</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.24835728518562</v>
+        <v>3.486936415483171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.13533147010429</v>
+        <v>2.665932205736226</v>
       </c>
       <c r="C2">
-        <v>0.2252243830160694</v>
+        <v>0.5691957141428077</v>
       </c>
       <c r="D2">
-        <v>0.07834349447604438</v>
+        <v>0.1991376559947327</v>
       </c>
       <c r="E2">
-        <v>0.09406137471690301</v>
+        <v>0.03905011644850331</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002455704863333368</v>
+        <v>0.0007982841017285962</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.836628255675425</v>
+        <v>0.3611092862698762</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2081373669001252</v>
+        <v>0.1615277252081384</v>
       </c>
       <c r="M2">
-        <v>0.2467649940627155</v>
+        <v>0.4429007465290766</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.497469496676302</v>
+        <v>2.086572863328229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.030758460242964</v>
+        <v>2.315651958602416</v>
       </c>
       <c r="C3">
-        <v>0.2047744254066401</v>
+        <v>0.5067763637887879</v>
       </c>
       <c r="D3">
-        <v>0.0710865866640944</v>
+        <v>0.172478425531267</v>
       </c>
       <c r="E3">
-        <v>0.09485364372930793</v>
+        <v>0.04043078206944117</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002459056076272053</v>
+        <v>0.000803400215367551</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8469054332425046</v>
+        <v>0.3667960006806688</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2055324021110678</v>
+        <v>0.1467930428696178</v>
       </c>
       <c r="M3">
-        <v>0.2305992805664658</v>
+        <v>0.3855398461055799</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.509885920984146</v>
+        <v>1.990333874708483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9666470508117868</v>
+        <v>2.101251752474923</v>
       </c>
       <c r="C4">
-        <v>0.1921354109002209</v>
+        <v>0.468473292252753</v>
       </c>
       <c r="D4">
-        <v>0.06666704055751893</v>
+        <v>0.1562967533057673</v>
       </c>
       <c r="E4">
-        <v>0.09536812119174365</v>
+        <v>0.04131961871882295</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002461223740790418</v>
+        <v>0.0008066409005787398</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8537931240883552</v>
+        <v>0.3715114119436898</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2040389907457012</v>
+        <v>0.1379515143486572</v>
       </c>
       <c r="M4">
-        <v>0.2207373964448536</v>
+        <v>0.3505114675166041</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.520103826522131</v>
+        <v>1.937194860652852</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9405468446136069</v>
+        <v>2.014010234635975</v>
       </c>
       <c r="C5">
-        <v>0.1869643173884867</v>
+        <v>0.4528631548630813</v>
       </c>
       <c r="D5">
-        <v>0.06487510809674291</v>
+        <v>0.1497437895899481</v>
       </c>
       <c r="E5">
-        <v>0.09558483383782779</v>
+        <v>0.04169208891906151</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002462134829020659</v>
+        <v>0.0008079870815014023</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.856744895178629</v>
+        <v>0.3737256990355853</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2034571138309715</v>
+        <v>0.1343965446868225</v>
       </c>
       <c r="M5">
-        <v>0.2167348745354545</v>
+        <v>0.3362775480782858</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.524918802188751</v>
+        <v>1.916945473253861</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9362145187471924</v>
+        <v>1.999530450953841</v>
       </c>
       <c r="C6">
-        <v>0.1861044232474285</v>
+        <v>0.450270827646932</v>
       </c>
       <c r="D6">
-        <v>0.06457810561474275</v>
+        <v>0.1486579979845857</v>
       </c>
       <c r="E6">
-        <v>0.09562124552398643</v>
+        <v>0.04175455501976821</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002462287792960371</v>
+        <v>0.0008082121751676871</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8572437843879648</v>
+        <v>0.3741106364198892</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2033621072553089</v>
+        <v>0.1338090416978375</v>
       </c>
       <c r="M6">
-        <v>0.2160712478005351</v>
+        <v>0.3339162425345634</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.525757613852733</v>
+        <v>1.913665371804456</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9662949483725924</v>
+        <v>2.100074715521885</v>
       </c>
       <c r="C7">
-        <v>0.19206575484327</v>
+        <v>0.4682627827660042</v>
       </c>
       <c r="D7">
-        <v>0.06664283726432529</v>
+        <v>0.1562082184495637</v>
       </c>
       <c r="E7">
-        <v>0.09537101525591796</v>
+        <v>0.04132460052622244</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00246123591573722</v>
+        <v>0.0008066589513186881</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8538323459861239</v>
+        <v>0.371540108599941</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.204031035196337</v>
+        <v>0.1379033810432233</v>
       </c>
       <c r="M7">
-        <v>0.2206833508664587</v>
+        <v>0.3503193500339634</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.520166128347768</v>
+        <v>1.936916197877991</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.099255376459837</v>
+        <v>2.544990189845521</v>
       </c>
       <c r="C8">
-        <v>0.2181905020754016</v>
+        <v>0.5476644163438493</v>
       </c>
       <c r="D8">
-        <v>0.07583376757256133</v>
+        <v>0.1899030489020532</v>
       </c>
       <c r="E8">
-        <v>0.09432874102463629</v>
+        <v>0.03951759426499168</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002456837581079772</v>
+        <v>0.0008000278773991937</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8400518384749311</v>
+        <v>0.3628067821947205</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2072171837096164</v>
+        <v>0.1564022416313051</v>
       </c>
       <c r="M8">
-        <v>0.2411779017418354</v>
+        <v>0.4230781578468026</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.501211512862454</v>
+        <v>2.052097521597318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.360712704484627</v>
+        <v>3.424846297553586</v>
       </c>
       <c r="C9">
-        <v>0.2687591891919112</v>
+        <v>0.7039010732961515</v>
       </c>
       <c r="D9">
-        <v>0.09414736960326309</v>
+        <v>0.2577497235881197</v>
       </c>
       <c r="E9">
-        <v>0.09250658835838665</v>
+        <v>0.03630356052407979</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002449081418067186</v>
+        <v>0.0007877844482923134</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8176203806963365</v>
+        <v>0.3561117977665234</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2143057612326373</v>
+        <v>0.194489080490257</v>
       </c>
       <c r="M9">
-        <v>0.2818683441421967</v>
+        <v>0.5676579176570229</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.484684402030268</v>
+        <v>2.329615458679541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.553204178449221</v>
+        <v>4.078899712021439</v>
       </c>
       <c r="C10">
-        <v>0.3055040490165197</v>
+        <v>0.819552226719054</v>
       </c>
       <c r="D10">
-        <v>0.1077845431347413</v>
+        <v>0.3091074427379681</v>
       </c>
       <c r="E10">
-        <v>0.09130219562391728</v>
+        <v>0.03414786955923255</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002443907246386589</v>
+        <v>0.0007792101298217362</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8039534648840601</v>
+        <v>0.3586284787213003</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2200258480551156</v>
+        <v>0.2238451644258959</v>
       </c>
       <c r="M10">
-        <v>0.3120633415585843</v>
+        <v>0.6756208813031748</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.485213883558146</v>
+        <v>2.571621778765461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.640852806360783</v>
+        <v>4.378868031673221</v>
       </c>
       <c r="C11">
-        <v>0.3221309701734185</v>
+        <v>0.8724862354724223</v>
       </c>
       <c r="D11">
-        <v>0.1140292108001688</v>
+        <v>0.3329041440623968</v>
       </c>
       <c r="E11">
-        <v>0.09078327896951066</v>
+        <v>0.03321296632504889</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002441666062314168</v>
+        <v>0.0007753906506783113</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7983499801060319</v>
+        <v>0.3616493244460131</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2227392605101102</v>
+        <v>0.2375637968391544</v>
       </c>
       <c r="M11">
-        <v>0.3258639847361238</v>
+        <v>0.7252563455728165</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.488225547504612</v>
+        <v>2.69160631569531</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.674054003539993</v>
+        <v>4.492877665448532</v>
       </c>
       <c r="C12">
-        <v>0.3284142919544593</v>
+        <v>0.8925896342378508</v>
       </c>
       <c r="D12">
-        <v>0.1163998726040205</v>
+        <v>0.3419871902306539</v>
       </c>
       <c r="E12">
-        <v>0.09059093118226702</v>
+        <v>0.03286562213761957</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002440833483941417</v>
+        <v>0.0007739550509397192</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7963165854913399</v>
+        <v>0.3630869793190357</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2237827483229324</v>
+        <v>0.2428170098326632</v>
       </c>
       <c r="M12">
-        <v>0.3310990989131355</v>
+        <v>0.7441399931321016</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.489765884397599</v>
+        <v>2.738611897778952</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.666903084166449</v>
+        <v>4.46830390763887</v>
       </c>
       <c r="C13">
-        <v>0.3270616446127974</v>
+        <v>0.8882572069847186</v>
       </c>
       <c r="D13">
-        <v>0.1158890432930519</v>
+        <v>0.3400276446199371</v>
       </c>
       <c r="E13">
-        <v>0.09063217211030716</v>
+        <v>0.03294012990199979</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002441012079428026</v>
+        <v>0.0007742637698080479</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7967505718495218</v>
+        <v>0.3627638870180547</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2235573044225418</v>
+        <v>0.2416829463211201</v>
       </c>
       <c r="M13">
-        <v>0.3299712214903607</v>
+        <v>0.7400689446951958</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.4894163372484</v>
+        <v>2.728416091779479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.643584085151019</v>
+        <v>4.388238882154212</v>
       </c>
       <c r="C14">
-        <v>0.3226481631940317</v>
+        <v>0.8741389108259909</v>
       </c>
       <c r="D14">
-        <v>0.1142241272715978</v>
+        <v>0.333649917158013</v>
       </c>
       <c r="E14">
-        <v>0.09076737119683775</v>
+        <v>0.03318425552773219</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002441597243198158</v>
+        <v>0.0007752723328533851</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7981809157651725</v>
+        <v>0.3617615697448855</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2228247888385084</v>
+        <v>0.2379947787442234</v>
       </c>
       <c r="M14">
-        <v>0.3262944993226782</v>
+        <v>0.7268080791095528</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.488344249368168</v>
+        <v>2.695441137300548</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.629301859024224</v>
+        <v>4.339253314647351</v>
       </c>
       <c r="C15">
-        <v>0.3199430881363696</v>
+        <v>0.8654990294336642</v>
       </c>
       <c r="D15">
-        <v>0.1132050930699364</v>
+        <v>0.329753011034768</v>
       </c>
       <c r="E15">
-        <v>0.09085072528450144</v>
+        <v>0.03333466318762657</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002441957768601362</v>
+        <v>0.0007758914795381255</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7990685793725802</v>
+        <v>0.3611866200971647</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2223781817454267</v>
+        <v>0.2357434399638407</v>
       </c>
       <c r="M15">
-        <v>0.3240435811579303</v>
+        <v>0.7186972409716645</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.487739684370808</v>
+        <v>2.675452083322511</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.547477689330265</v>
+        <v>4.059350758121241</v>
       </c>
       <c r="C16">
-        <v>0.3044156420764637</v>
+        <v>0.8161003694965814</v>
       </c>
       <c r="D16">
-        <v>0.1073772687552577</v>
+        <v>0.3075617846213134</v>
       </c>
       <c r="E16">
-        <v>0.09133669002324485</v>
+        <v>0.03420989694255572</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002444055971587031</v>
+        <v>0.0007794612971973486</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8043320381556285</v>
+        <v>0.3584708105490222</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2198507575879631</v>
+        <v>0.2229564422892309</v>
       </c>
       <c r="M16">
-        <v>0.3111627230756469</v>
+        <v>0.6723886566878434</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.48507294357313</v>
+        <v>2.563991903367878</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.497301533524308</v>
+        <v>3.88830992706545</v>
       </c>
       <c r="C17">
-        <v>0.2948672422465108</v>
+        <v>0.7858869127586843</v>
       </c>
       <c r="D17">
-        <v>0.1038126286549925</v>
+        <v>0.2940657149965631</v>
       </c>
       <c r="E17">
-        <v>0.09164222522631804</v>
+        <v>0.03475861176244033</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002445371927835449</v>
+        <v>0.0007816714007840673</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.807718372412964</v>
+        <v>0.3573016446303114</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2183287542294607</v>
+        <v>0.2152093842632752</v>
       </c>
       <c r="M17">
-        <v>0.3032771799713103</v>
+        <v>0.6441223219017971</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.484147683102663</v>
+        <v>2.498249684479362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.468449458956002</v>
+        <v>3.790156656434533</v>
       </c>
       <c r="C18">
-        <v>0.2893669373313799</v>
+        <v>0.7685386254900379</v>
       </c>
       <c r="D18">
-        <v>0.1017662033681148</v>
+        <v>0.2863433591574704</v>
       </c>
       <c r="E18">
-        <v>0.09182068820664613</v>
+        <v>0.035078515687746</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002446139431547385</v>
+        <v>0.0007829502777685446</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8097238465390433</v>
+        <v>0.3568041974115914</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2174638175255836</v>
+        <v>0.2107874014155442</v>
       </c>
       <c r="M18">
-        <v>0.2987477344177307</v>
+        <v>0.6279126405529851</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.483876212079423</v>
+        <v>2.461358285754613</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.458682046394642</v>
+        <v>3.75696030233189</v>
       </c>
       <c r="C19">
-        <v>0.2875032063227252</v>
+        <v>0.7626695493752038</v>
       </c>
       <c r="D19">
-        <v>0.1010739809432408</v>
+        <v>0.2837353384967258</v>
       </c>
       <c r="E19">
-        <v>0.09188158143822811</v>
+        <v>0.03518756462321626</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00244640111810589</v>
+        <v>0.0007833846293750959</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8104127747392624</v>
+        <v>0.3566651343832419</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2171727655731814</v>
+        <v>0.2092958490976571</v>
       </c>
       <c r="M19">
-        <v>0.2972151977482298</v>
+        <v>0.6224322612037625</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.483829030490625</v>
+        <v>2.449021532248366</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.502642061242454</v>
+        <v>3.90649376809597</v>
       </c>
       <c r="C20">
-        <v>0.2958845480822561</v>
+        <v>0.7891000310541472</v>
       </c>
       <c r="D20">
-        <v>0.1041916907561671</v>
+        <v>0.295498166032786</v>
       </c>
       <c r="E20">
-        <v>0.0916094183049283</v>
+        <v>0.03469975458336449</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002445230745688661</v>
+        <v>0.0007814353424664798</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8073519130125888</v>
+        <v>0.3574078227905488</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.21848968972634</v>
+        <v>0.2160305203145043</v>
       </c>
       <c r="M20">
-        <v>0.304115978607733</v>
+        <v>0.6471262277734269</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.484219185203216</v>
+        <v>2.505151629133906</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.650433164897777</v>
+        <v>4.411744001443481</v>
       </c>
       <c r="C21">
-        <v>0.3239448622825591</v>
+        <v>0.8782841102127179</v>
       </c>
       <c r="D21">
-        <v>0.1147129919001202</v>
+        <v>0.335521184276061</v>
       </c>
       <c r="E21">
-        <v>0.090727547276507</v>
+        <v>0.03311236764233061</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002441424929775983</v>
+        <v>0.0007749758090818463</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7977583843571026</v>
+        <v>0.3620478015972282</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.22303951303536</v>
+        <v>0.2390764524479181</v>
       </c>
       <c r="M21">
-        <v>0.3273741961343362</v>
+        <v>0.7307006283191271</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.488648283267736</v>
+        <v>2.705082831897386</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.747084125850108</v>
+        <v>4.744427513997948</v>
       </c>
       <c r="C22">
-        <v>0.3422084260816689</v>
+        <v>0.9369180463477278</v>
       </c>
       <c r="D22">
-        <v>0.1216239210525316</v>
+        <v>0.3621017136941589</v>
       </c>
       <c r="E22">
-        <v>0.09017540532555612</v>
+        <v>0.03211392880286512</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002439031471250544</v>
+        <v>0.0007708163435129343</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7920045709513701</v>
+        <v>0.3668050291381419</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2261062005668464</v>
+        <v>0.2544810043814323</v>
       </c>
       <c r="M22">
-        <v>0.3426277925129071</v>
+        <v>0.7858396441022251</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.493874462476185</v>
+        <v>2.844978861925483</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.695494576386238</v>
+        <v>4.56661770495009</v>
       </c>
       <c r="C23">
-        <v>0.3324677915951213</v>
+        <v>0.9055880300742274</v>
       </c>
       <c r="D23">
-        <v>0.1179322447501505</v>
+        <v>0.3478731524179182</v>
       </c>
       <c r="E23">
-        <v>0.09046788205117062</v>
+        <v>0.03264320782902197</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002440300342501309</v>
+        <v>0.0007730309519494977</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7950281728445674</v>
+        <v>0.3640997183568544</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2244609414258747</v>
+        <v>0.2462258766150427</v>
       </c>
       <c r="M23">
-        <v>0.3344818784625048</v>
+        <v>0.7563590137130802</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.490871341188665</v>
+        <v>2.769417091146636</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.50022762454978</v>
+        <v>3.898272296769676</v>
       </c>
       <c r="C24">
-        <v>0.2954246577509423</v>
+        <v>0.787647313156981</v>
       </c>
       <c r="D24">
-        <v>0.104020307646806</v>
+        <v>0.2948504412607491</v>
       </c>
       <c r="E24">
-        <v>0.09162424157059057</v>
+        <v>0.03472635009099245</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00244529454003846</v>
+        <v>0.0007815420386216405</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.807517406708584</v>
+        <v>0.3573592772110317</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2184168993783828</v>
+        <v>0.2156591857691552</v>
       </c>
       <c r="M24">
-        <v>0.3037367450885071</v>
+        <v>0.6457680351295139</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.484186047834669</v>
+        <v>2.502028453053754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.289908602845685</v>
+        <v>3.185724913056106</v>
       </c>
       <c r="C25">
-        <v>0.2551503493243672</v>
+        <v>0.6615251453281701</v>
       </c>
       <c r="D25">
-        <v>0.08916144265243986</v>
+        <v>0.2391632650383286</v>
       </c>
       <c r="E25">
-        <v>0.09297587673054908</v>
+        <v>0.03713728875580347</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002451087204084079</v>
+        <v>0.0007910194522799929</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8231956217550902</v>
+        <v>0.3567001272294803</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2122981602508176</v>
+        <v>0.1839651130215501</v>
       </c>
       <c r="M25">
-        <v>0.2708074773737152</v>
+        <v>0.5282846091616591</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.486936415483171</v>
+        <v>2.248357285185676</v>
       </c>
     </row>
   </sheetData>
